--- a/pred_ohlcv/54_21/2020-01-22 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TRX ohlcv.xlsx
@@ -2082,7 +2082,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-409243.09386817</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-413333.86796817</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-629922.2767681701</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>5475347.07249362</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-420027569.5255064</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-419878917.8295064</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-419690295.8328853</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-419770403.0684797</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-419803199.7833797</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-417896258.1047797</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-418715254.7866809</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-419173454.0969809</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-419417476.638081</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-419600779.3150809</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-418707035.246181</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-418679637.300481</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-418678185.3541809</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-418683185.3541809</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-418758477.8759809</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-418745397.9253809</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-418745367.9253809</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-418859301.1197809</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-418752428.9568316</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-418773747.3530316</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-417837388.6206316</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-417994238.6206316</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-417994134.4540316</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-418033528.4982316</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-418036086.5327316</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-417607412.0511934</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-417595244.0924934</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-417916911.5430934</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-417652818.9808934</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-417703051.9564934</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-417719084.6064934</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-417719054.6064934</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-417719654.6064934</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-417709654.6064934</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-417658209.5014933</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-417567234.7274933</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-417534530.0519934</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-417538129.7603934</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-416802398.2156934</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-416825140.4005933</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-416715959.8094934</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-416997512.7714934</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-417053830.6308933</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-417023150.6921933</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-417024704.3807933</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-416670896.2229666</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-416298842.7106665</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-416690219.2803665</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-416604288.5176665</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-416691248.3421665</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-417067574.0079665</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-417067256.5879665</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-416402370.0021665</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-415810873.9685665</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-415881865.3212665</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-415690640.7933859</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-415699775.3062859</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-416064236.4594859</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-415535802.407088</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-415535802.407088</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-415451802.154788</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-411278638.9961557</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-411089623.3854323</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-410849731.5776323</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-410881720.6989323</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-410904484.2483323</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-410748189.9122323</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-410758281.3992323</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-410661642.2759323</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-410713349.0190322</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-410757679.0786322</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-410893891.5862322</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-411080795.26695</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-410981372.32305</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-411101200.7413499</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-410242994.43295</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-410250777.1620499</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-410606301.02415</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-410395909.374299</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-410400909.374299</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-410080836.472299</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-410168163.857799</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-410006598.7211614</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-410079194.3693614</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-410079194.3693614</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-410083727.3100614</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-410245292.4466614</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-410409684.9918614</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-410210510.9720614</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-410210510.9720614</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-410210510.9720614</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-410338712.7364614</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-410315162.7442614</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-410241177.5795194</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-410248482.3485194</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-410356582.3485194</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TRX ohlcv.xlsx
@@ -8686,7 +8686,7 @@
         <v>5475347.07249362</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-420027569.5255064</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-419878917.8295064</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-419690295.8328853</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-419770403.0684797</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-419803199.7833797</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-417896258.1047797</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-417393628.9550796</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-417824967.9303809</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-417824967.9303809</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-417926601.8057809</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-417930449.4375809</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-417930385.4452809</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-418715254.7866809</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-418991106.2431809</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-419075295.579581</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-419173454.0969809</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-419417476.638081</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-419600779.3150809</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-418707035.246181</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-418679637.300481</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-418678185.3541809</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-418683185.3541809</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-418758477.8759809</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-418745397.9253809</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-418745367.9253809</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-418859301.1197809</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-418752428.9568316</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-418773747.3530316</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-417837388.6206316</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-417994238.6206316</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-417994134.4540316</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-418033528.4982316</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-418036086.5327316</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-417596813.1373934</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-417965311.9667934</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-417916911.5430934</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-417652818.9808934</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-417676386.6136934</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-417703051.9564934</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-417719084.6064934</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-417719054.6064934</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-417719654.6064934</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-417709654.6064934</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-417658209.5014933</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-417567234.7274933</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-417534530.0519934</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-417538129.7603934</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-416802398.2156934</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-416825140.4005933</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-416715959.8094934</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-416997512.7714934</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-416996864.2336934</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-417053830.6308933</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-417023150.6921933</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-417025904.3807933</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-417024704.3807933</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-416670896.2229666</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-416298842.7106665</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-416690219.2803665</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-416604288.5176665</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-416691248.3421665</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-417067574.0079665</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-417067256.5879665</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-416402370.0021665</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-415810873.9685665</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-415881865.3212665</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-415690640.7933859</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-415699775.3062859</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-415659775.3062859</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-415724432.2319859</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-415724680.0341859</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-416096110.3700859</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-416064236.4594859</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-415846914.5205859</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-415677789.3288859</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-415584820.375484</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-415650432.592384</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-415532310.203784</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-415182132.0684432</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-415186521.0056432</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-415109132.0132433</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-415083343.3041432</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-415083418.3041432</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-415081985.6764433</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-415086817.8419433</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-415087766.3419433</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-415151852.6269433</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-415151803.6199433</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-415435661.3456433</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-415433732.2956433</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-415433438.9321433</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-415480419.0517433</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-415432026.2641881</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-415640801.5964881</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-415951392.2869881</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-415360867.1824881</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-415380229.7682881</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-415379709.7682881</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-415819275.268788</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-415825534.109688</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-415463291.866188</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-415535802.407088</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-415451802.154788</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-415191317.441188</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-415176554.9550335</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-415288080.4861335</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-415285456.4565334</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-415246767.7908334</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-414519664.848836</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-414519820.901036</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-414518720.901036</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-414520297.626936</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-414480297.626936</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-415349231.6988583</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-415190719.1550583</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-415189122.2110583</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-415348604.6867583</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-415759379.6726583</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-415362313.9481583</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-415353794.8618583</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-411614344.6350557</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-410874509.1337557</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-411403667.2419558</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-411403667.2419558</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-410719376.9060557</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-411109704.1546558</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-411109704.1546558</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-410984361.5932558</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-411278638.9961557</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-411089856.3641557</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-411089623.3854323</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-410849731.5776323</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-410881720.6989323</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-410904484.2483323</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-410748189.9122323</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-410758281.3992323</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-410661642.2759323</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-410713349.0190322</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-410757679.0786322</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-410757679.0786322</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-410741625.8814322</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-410893891.5862322</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-410922698.2633322</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-410922576.2847499</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-410923003.2057499</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-411080795.26695</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-410986729.64305</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-410981372.32305</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-411101200.7413499</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-410242994.43295</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-410250777.1620499</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-410606301.02415</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-410395909.374299</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-410400909.374299</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-410080836.472299</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-410079194.3693614</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
